--- a/supplementary_tables/S1_complex_diseases_candidate_drugs.xlsx
+++ b/supplementary_tables/S1_complex_diseases_candidate_drugs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panagiotisnikolaoslalagkas/Desktop/mendelian_comorbidity_therapeutics/supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B234E6F4-F509-454D-A510-F61F3E03C351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9468FD60-D540-7646-BBAC-C5B62449C3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22740" windowHeight="12500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5640" yWindow="-26760" windowWidth="22740" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>some drugs target genes linked to different Mendelian diseases. If these Mendelian diseases are comorbid with the same complex disease, these drugs appear more than once as a candidate drug (in different rows).</t>
+      <t>some drugs target genes linked to more than one Mendelian diseases. If these Mendelian diseases are comorbid with the same complex disease, then these drugs appear more than once as candidate drugs (in different rows).</t>
     </r>
   </si>
 </sst>
@@ -1246,10 +1246,17 @@
   <dimension ref="A1:E2468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
